--- a/SGameProject/assets/xlsx/stageparam.xlsx
+++ b/SGameProject/assets/xlsx/stageparam.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -109,6 +109,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>roleid#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleweight#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5,5,5,1,1,1,1,3</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34,35,36,37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5,5,5,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,23 +168,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,31,32,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34,35,36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5,5,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34,35,36,37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34,35,36,37,38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5,5,5,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34,35,36,37,38,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,5,5,5,5,5,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,31,32,33,34,35,36,37,38,39,42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,31,32,33,34,35,36,37,38,39,40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roleid#[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleweight#[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,100,100,100,100,5,5,5,5,5,1,1,1,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100,100,100,100,100,5,5,5,5,5,1,100,100,100,100</t>
+    <t>100,100,100,100,100,10,10,10,10,10,1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,10,10,10,10,10,5,5,5,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100,100,100,100,100,100,100,100,100,100,100,100,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -571,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -591,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -611,19 +710,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -637,16 +736,407 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1400</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1600</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1800</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2200</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2400</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2600</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2800</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3000</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3200</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3400</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3600</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3800</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4000</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
